--- a/views/files/partner.xlsx
+++ b/views/files/partner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PUBLIC.DESKTOP-VNJH5TE\Desktop\Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15CD51-99EE-4E4A-B67B-A4915129DAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689913F-7339-42D2-BD0F-4D623CF991B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Имя</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Паспорт</t>
-  </si>
-  <si>
-    <t>Вид деятельности</t>
   </si>
 </sst>
 </file>
@@ -392,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,12 +402,11 @@
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -426,55 +422,44 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
